--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_20-52.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_20-52.xlsx
@@ -125,6 +125,12 @@
     <t>CAL-MAG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -470,6 +476,12 @@
     <t xml:space="preserve">بلاستر 2سم </t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -482,16 +494,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-5:0</t>
-  </si>
-  <si>
-    <t>41:0</t>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>42:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
@@ -1614,17 +1623,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1632,7 +1641,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1640,17 +1649,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1672,7 +1681,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1692,17 +1701,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1710,7 +1719,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1718,17 +1727,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1736,7 +1745,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1744,17 +1753,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1762,7 +1771,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1770,17 +1779,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1796,17 +1805,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1814,7 +1823,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1822,17 +1831,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,11 +1863,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1880,11 +1889,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1900,13 +1909,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1918,7 +1927,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1926,13 +1935,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1952,13 +1961,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1970,7 +1979,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1978,17 +1987,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -2010,7 +2019,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -2030,13 +2039,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -2048,7 +2057,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2056,17 +2065,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2074,7 +2083,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2082,17 +2091,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>194</v>
+        <v>122.5</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2100,7 +2109,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2108,17 +2117,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2126,7 +2135,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2134,17 +2143,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2166,11 +2175,11 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2186,17 +2195,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2204,7 +2213,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2212,13 +2221,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2230,7 +2239,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2238,13 +2247,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2256,7 +2265,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2264,17 +2273,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2282,7 +2291,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2290,17 +2299,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2308,7 +2317,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2316,17 +2325,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2334,7 +2343,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2342,17 +2351,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2360,7 +2369,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2368,17 +2377,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2386,7 +2395,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2394,13 +2403,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2412,7 +2421,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2420,13 +2429,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2438,7 +2447,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2446,17 +2455,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>30.670000000000002</v>
+        <v>34</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2464,7 +2473,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2472,17 +2481,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2490,7 +2499,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2498,17 +2507,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2516,7 +2525,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2524,17 +2533,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2542,7 +2551,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2550,17 +2559,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2568,7 +2577,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2576,13 +2585,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2594,7 +2603,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2608,11 +2617,11 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2620,7 +2629,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2628,17 +2637,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>-290</v>
+        <v>84</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2646,7 +2655,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2654,13 +2663,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2672,7 +2681,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2680,13 +2689,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2698,7 +2707,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2706,13 +2715,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2724,7 +2733,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2732,13 +2741,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2750,7 +2759,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2758,13 +2767,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2776,7 +2785,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2784,17 +2793,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>27.329999999999998</v>
+        <v>145</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2810,17 +2819,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>274</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2828,7 +2837,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2836,17 +2845,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2854,7 +2863,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2862,17 +2871,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2880,7 +2889,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2888,17 +2897,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2906,7 +2915,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2914,17 +2923,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2932,7 +2941,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2940,17 +2949,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2958,7 +2967,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2966,17 +2975,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2984,7 +2993,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2992,17 +3001,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3010,7 +3019,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3018,17 +3027,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3044,17 +3053,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3062,7 +3071,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3070,17 +3079,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>76.439999999999998</v>
+        <v>28</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3088,7 +3097,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3096,17 +3105,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>270</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3114,7 +3123,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3122,17 +3131,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3148,17 +3157,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3166,7 +3175,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3174,17 +3183,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3192,7 +3201,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3200,17 +3209,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3218,7 +3227,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3226,17 +3235,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3244,7 +3253,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3258,11 +3267,11 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3270,7 +3279,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3278,13 +3287,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3296,7 +3305,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3310,11 +3319,11 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3322,7 +3331,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3336,7 +3345,7 @@
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3348,7 +3357,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3362,11 +3371,11 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3374,7 +3383,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3382,17 +3391,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3400,7 +3409,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3408,17 +3417,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3426,7 +3435,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3434,17 +3443,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>7.0499999999999998</v>
+        <v>28</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3452,7 +3461,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3460,13 +3469,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3486,17 +3495,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3504,7 +3513,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3512,17 +3521,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>27</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3530,7 +3539,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3538,13 +3547,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>-185</v>
+        <v>27</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3556,7 +3565,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3564,17 +3573,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3582,7 +3591,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3590,17 +3599,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3608,7 +3617,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3616,17 +3625,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3634,7 +3643,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3642,17 +3651,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>45.5</v>
+        <v>39</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3668,17 +3677,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3686,7 +3695,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3700,7 +3709,7 @@
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3712,7 +3721,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3720,13 +3729,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3738,7 +3747,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3752,11 +3761,11 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3764,7 +3773,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3772,17 +3781,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3790,7 +3799,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3804,11 +3813,11 @@
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3816,7 +3825,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3824,17 +3833,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3842,7 +3851,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3850,17 +3859,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3868,7 +3877,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3876,17 +3885,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3894,7 +3903,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3902,17 +3911,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3920,7 +3929,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3928,13 +3937,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3946,7 +3955,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3954,17 +3963,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3972,7 +3981,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3980,17 +3989,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4006,17 +4015,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4024,7 +4033,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4032,17 +4041,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4050,7 +4059,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4058,13 +4067,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4076,7 +4085,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4084,7 +4093,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -4102,7 +4111,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4110,13 +4119,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4136,13 +4145,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4154,7 +4163,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4162,17 +4171,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>158</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4188,17 +4197,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4206,7 +4215,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4214,17 +4223,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>9</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4232,7 +4241,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4240,17 +4249,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4258,7 +4267,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4266,13 +4275,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4284,7 +4293,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4292,13 +4301,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4318,13 +4327,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>68.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4344,13 +4353,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4362,7 +4371,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4370,13 +4379,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>44.549999999999997</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4388,7 +4397,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4396,13 +4405,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4414,7 +4423,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4422,13 +4431,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>30</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
@@ -4448,51 +4457,103 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" ht="25.5" customHeight="1">
+      <c r="A133" s="6">
+        <v>130</v>
+      </c>
+      <c t="s" r="B133" s="7">
+        <v>173</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c t="s" r="H133" s="8">
+        <v>174</v>
+      </c>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="9">
+        <v>30</v>
+      </c>
+      <c r="M133" s="9"/>
+      <c t="s" r="N133" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" ht="24.75" customHeight="1">
+      <c r="A134" s="6">
+        <v>131</v>
+      </c>
+      <c t="s" r="B134" s="7">
+        <v>175</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c t="s" r="H134" s="8">
+        <v>174</v>
+      </c>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="9">
+        <v>70</v>
+      </c>
+      <c r="M134" s="9"/>
+      <c t="s" r="N134" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="133" ht="25.5" customHeight="1">
-      <c r="K133" s="10">
-        <v>7051.4099999999999</v>
-      </c>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-    </row>
-    <row r="134" ht="17.25" customHeight="1">
-      <c t="s" r="A134" s="11">
-        <v>173</v>
-      </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c t="s" r="F134" s="12">
-        <v>174</v>
-      </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="13"/>
-      <c t="s" r="I134" s="14">
-        <v>175</v>
-      </c>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
+    <row r="135" ht="26.25" customHeight="1">
+      <c r="K135" s="10">
+        <v>7098.4099999999999</v>
+      </c>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="11">
+        <v>176</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c t="s" r="F136" s="12">
+        <v>177</v>
+      </c>
+      <c r="G136" s="12"/>
+      <c r="H136" s="13"/>
+      <c t="s" r="I136" s="14">
+        <v>178</v>
+      </c>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="398">
+  <mergeCells count="404">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4887,10 +4948,16 @@
     <mergeCell ref="B132:G132"/>
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
-    <mergeCell ref="K133:N133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="I134:N134"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="K135:N135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="I136:N136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
